--- a/Cpp/avalicao das jogadas.xlsx
+++ b/Cpp/avalicao das jogadas.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\iart\IartGit\Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D01C04DF-251C-4268-ADB7-D66EDC9175DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>o</t>
   </si>
@@ -43,11 +45,29 @@
   <si>
     <t>Soma</t>
   </si>
+  <si>
+    <t>ISTO NÂO INTERESSA!!!</t>
+  </si>
+  <si>
+    <t>Estamos a jogar com 'o'</t>
+  </si>
+  <si>
+    <t>numero o adjacentes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>numero x adjacentes</t>
+  </si>
+  <si>
+    <t>avaliacao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,16 +114,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AF21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,106 +459,111 @@
     <col min="30" max="32" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Z2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AD2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="R3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -682,221 +707,221 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AD9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AD9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <f>$D$6*F6+$D$7*F7+$D$8*F8+$D$9*F9</f>
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3">
         <f>$D$6*J6+$D$7*J7+$D$8*J8+$D$9*J9</f>
         <v>6</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="N10" s="1">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3">
         <f>$D$6*N6+$D$7*N7+$D$8*N8+$D$9*N9</f>
         <v>11</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="R10" s="1">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="3">
         <f>$D$6*R6+$D$7*R7+$D$8*R8+$D$9*R9</f>
         <v>3</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="V10" s="1">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="V10" s="3">
         <f>$D$6*V6+$D$7*V7+$D$8*V8+$D$9*V9</f>
         <v>5</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Z10" s="1">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="3">
         <f>$D$6*Z6+$D$7*Z7+$D$8*Z8+$D$9*Z9</f>
         <v>8</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AD10" s="1">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AD10" s="3">
         <f>$D$6*AD6+$D$7*AD7+$D$8*AD8+$D$9*AD9</f>
         <v>7</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="R13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="V13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Z14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="R15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="V15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1045,93 +1070,136 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="J20" s="6">
-        <v>2</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="V20" s="6">
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="V20" s="5">
         <v>4</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Z20" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AD20" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Z20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AD20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <f>$D$6*F17+$D$7*F18+$D$8*F19+$D$9*F20</f>
         <v>13</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="J21" s="1">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3">
         <f>$D$6*J17+$D$7*J18+$D$8*J19+$D$9*J20</f>
         <v>13</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="N21" s="1">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3">
         <f>$D$6*N17+$D$7*N18+$D$8*N19+$D$9*N20</f>
         <v>14</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="R21" s="1">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="3">
         <f>$D$6*R17+$D$7*R18+$D$8*R19+$D$9*R20</f>
         <v>14</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="V21" s="1">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3">
         <f>$D$6*V17+$D$7*V18+$D$8*V19+$D$9*V20</f>
         <v>25</v>
       </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Z21" s="1">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Z21" s="3">
         <f>$D$6*Z17+$D$7*Z18+$D$8*Z19+$D$9*Z20</f>
         <v>25</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AD21" s="1">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3">
         <f>$D$6*AD17+$D$7*AD18+$D$8*AD19+$D$9*AD20</f>
         <v>22</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="AD19:AF19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="J20:L20"/>
@@ -1146,58 +1214,405 @@
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="V19:X19"/>
     <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Z21:AB21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55D6BC5-B12B-4A72-9E6B-7FD1558705C6}">
+  <dimension ref="A2:V18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14:V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="2.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="T9" s="3">
+        <v>2</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D8+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3">
+        <f>H8+H9</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="3">
+        <f>L8+L9</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="3">
+        <f>P8+P9</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3">
+        <f>T8+T9</f>
+        <v>2</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="T9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>